--- a/fake_example.xlsx
+++ b/fake_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prut/Documents/superAI2024/Level3/rule-based/neuropsychological_assessment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prut/Documents/superAI2024/Level3/rule-based/neuropsychological/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64035CC7-ABD7-C442-BE05-90286C2814EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9229F0-4C4F-8D4F-9FF2-52FD5251C701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="660" windowWidth="18980" windowHeight="19560" tabRatio="738" xr2:uid="{621A9CD4-A382-6048-B97E-33F5B9C8B8FF}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="18980" windowHeight="19560" tabRatio="738" activeTab="6" xr2:uid="{621A9CD4-A382-6048-B97E-33F5B9C8B8FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="15" r:id="rId1"/>
@@ -2404,16 +2404,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2439,6 +2431,35 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2448,31 +2469,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2821,7 +2821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1544D449-2576-8747-9D2F-79F43D20BDE6}">
   <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -13481,15 +13481,15 @@
       <c r="B5" s="32"/>
     </row>
     <row r="6" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="202"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="198"/>
     </row>
     <row r="7" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="42" t="s">
@@ -13597,12 +13597,12 @@
       <c r="B14" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="204"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="200"/>
     </row>
     <row r="15" spans="2:9" ht="27" x14ac:dyDescent="0.45">
       <c r="B15" s="59"/>
@@ -13685,15 +13685,15 @@
     </row>
     <row r="19" spans="2:9" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:9" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="202"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="197"/>
+      <c r="H20" s="198"/>
     </row>
     <row r="21" spans="2:9" ht="27" x14ac:dyDescent="0.45">
       <c r="B21" s="105"/>
@@ -13778,77 +13778,77 @@
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="205" t="s">
+      <c r="B27" s="201" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="206"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206"/>
-      <c r="H27" s="207"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="203"/>
       <c r="I27" s="111"/>
     </row>
     <row r="28" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="195" t="s">
+      <c r="B28" s="193" t="s">
         <v>365</v>
       </c>
-      <c r="C28" s="196"/>
-      <c r="D28" s="196"/>
-      <c r="E28" s="196" t="s">
+      <c r="C28" s="194"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="194" t="s">
         <v>366</v>
       </c>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="199"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="195"/>
     </row>
     <row r="29" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="195" t="s">
+      <c r="B29" s="193" t="s">
         <v>367</v>
       </c>
-      <c r="C29" s="196"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="196" t="s">
+      <c r="C29" s="194"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="194" t="s">
         <v>368</v>
       </c>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="199"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="195"/>
     </row>
     <row r="30" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="195" t="s">
+      <c r="B30" s="193" t="s">
         <v>369</v>
       </c>
-      <c r="C30" s="196"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="197" t="s">
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="206" t="s">
         <v>370</v>
       </c>
-      <c r="F30" s="197"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="198"/>
+      <c r="F30" s="206"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="207"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="195" t="s">
+      <c r="B31" s="193" t="s">
         <v>371</v>
       </c>
-      <c r="C31" s="196"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="197" t="s">
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="206" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="197"/>
-      <c r="G31" s="197"/>
-      <c r="H31" s="198"/>
+      <c r="F31" s="206"/>
+      <c r="G31" s="206"/>
+      <c r="H31" s="207"/>
     </row>
     <row r="32" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="195"/>
-      <c r="C32" s="196"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="194"/>
+      <c r="B32" s="193"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="205"/>
     </row>
     <row r="33" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="114" t="s">
@@ -14056,6 +14056,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="B6:H6"/>
@@ -14064,12 +14070,6 @@
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.56000000000000005" right="0.25" top="0.86" bottom="0.25" header="0.53" footer="0.5"/>
@@ -14203,16 +14203,16 @@
       <c r="B5" s="14"/>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="215" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="210"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="217"/>
     </row>
     <row r="7" spans="2:9" ht="27" x14ac:dyDescent="0.45">
-      <c r="B7" s="215"/>
-      <c r="C7" s="216"/>
+      <c r="B7" s="218"/>
+      <c r="C7" s="219"/>
       <c r="D7" s="60" t="s">
         <v>13</v>
       </c>
@@ -14221,39 +14221,39 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="20" x14ac:dyDescent="0.3">
-      <c r="B8" s="213" t="s">
+      <c r="B8" s="209" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="214"/>
+      <c r="C8" s="210"/>
       <c r="D8" s="39">
         <v>2</v>
       </c>
       <c r="E8" s="36"/>
     </row>
     <row r="9" spans="2:9" ht="20" x14ac:dyDescent="0.3">
-      <c r="B9" s="213" t="s">
+      <c r="B9" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="214"/>
+      <c r="C9" s="210"/>
       <c r="D9" s="39">
         <v>14</v>
       </c>
       <c r="E9" s="36"/>
     </row>
     <row r="10" spans="2:9" ht="20" x14ac:dyDescent="0.3">
-      <c r="B10" s="213" t="s">
+      <c r="B10" s="209" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="214"/>
+      <c r="C10" s="210"/>
       <c r="E10" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="20" x14ac:dyDescent="0.3">
-      <c r="B11" s="213" t="s">
+      <c r="B11" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="214"/>
+      <c r="C11" s="210"/>
       <c r="D11" s="39">
         <v>8</v>
       </c>
@@ -14287,20 +14287,20 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="20" x14ac:dyDescent="0.3">
-      <c r="B15" s="213" t="s">
+      <c r="B15" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="214"/>
+      <c r="C15" s="210"/>
       <c r="D15" s="39">
         <v>3</v>
       </c>
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:9" ht="20" x14ac:dyDescent="0.3">
-      <c r="B16" s="213" t="s">
+      <c r="B16" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="214"/>
+      <c r="C16" s="210"/>
       <c r="D16" s="39">
         <f>D8+D9+D11+D15</f>
         <v>27</v>
@@ -14308,25 +14308,19 @@
       <c r="E16" s="36"/>
     </row>
     <row r="17" spans="2:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="218"/>
-      <c r="C17" s="219"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="214"/>
       <c r="D17" s="37"/>
       <c r="E17" s="38"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="217"/>
-      <c r="C18" s="217"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="208"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B8:C8"/>
@@ -14334,6 +14328,12 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14348,8 +14348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E0EF95-B279-FB4C-B383-CC1F2A635D79}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -15329,8 +15329,8 @@
       </c>
       <c r="E39" t="str">
         <f>IF(NOT(ISNUMBER(Interpretation!D39)), "Invalid Input",
-IF(Interpretation!D39&lt;0.5, "Impaired", "Preserved"))</f>
-        <v>Impaired</v>
+IF(Interpretation!D39&gt;0.5, "Impaired", "Preserved"))</f>
+        <v>Preserved</v>
       </c>
       <c r="F39" s="160">
         <v>0.5</v>
